--- a/biology/Médecine/Centre_hospitalier_du_Pays_d'Eygurande/Centre_hospitalier_du_Pays_d'Eygurande.xlsx
+++ b/biology/Médecine/Centre_hospitalier_du_Pays_d'Eygurande/Centre_hospitalier_du_Pays_d'Eygurande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_du_Pays_d%27Eygurande</t>
+          <t>Centre_hospitalier_du_Pays_d'Eygurande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier du Pays d'Eygurande est un centre hospitalier public situé à Monestier-Merlines, dans le département de la Corrèze sur le site d'un asile créé en 1831.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_du_Pays_d%27Eygurande</t>
+          <t>Centre_hospitalier_du_Pays_d'Eygurande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-L'asile est créé en sous sa forme actuelle en 1831 sur le site d'un couvent de cordeliers qui donne, à partir du XVe siècle, « des soins aux aliénés que leur confiaient leurs familles, ainsi qu'à des prêtres de mauvaises "mœurs"[1] ». La plus ancienne occupation du site consiste en un ermitage, créé en 1144, par un religieux bénédictin du prieuré de Marsat fait bâtir une chapelle dans le style de Notre-Dame de Nazareth[1]. Cet ermitage prend le nom de Cella, ou chambre de Notre-Dame, puis à partir de 1448 de Celette. Transformé en couvent, des soins aux aliénés y sont dispensés dès le XVe siècle[1].
-Époque moderne
-Le centre hospitalier de Haute-Corrèze gère ceux de Bort-les-Orgues et d'Eygurande.
-L'établissement a une capacité d'accueil de cent soixante-dix lits en hospitalisation et assure le suivi de plus de sept cents personnes[1]. Il accueille en outre une unité pour malades difficiles, ouverte en 2011[2].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'asile est créé en sous sa forme actuelle en 1831 sur le site d'un couvent de cordeliers qui donne, à partir du XVe siècle, « des soins aux aliénés que leur confiaient leurs familles, ainsi qu'à des prêtres de mauvaises "mœurs" ». La plus ancienne occupation du site consiste en un ermitage, créé en 1144, par un religieux bénédictin du prieuré de Marsat fait bâtir une chapelle dans le style de Notre-Dame de Nazareth. Cet ermitage prend le nom de Cella, ou chambre de Notre-Dame, puis à partir de 1448 de Celette. Transformé en couvent, des soins aux aliénés y sont dispensés dès le XVe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Pays_d'Eygurande</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Pays_d%27Eygurande</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Époque moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier de Haute-Corrèze gère ceux de Bort-les-Orgues et d'Eygurande.
+L'établissement a une capacité d'accueil de cent soixante-dix lits en hospitalisation et assure le suivi de plus de sept cents personnes. Il accueille en outre une unité pour malades difficiles, ouverte en 2011.
 </t>
         </is>
       </c>
